--- a/doc/页面结构设计.xlsx
+++ b/doc/页面结构设计.xlsx
@@ -4,17 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="登录" sheetId="2" r:id="rId1"/>
+    <sheet name="注册" sheetId="3" r:id="rId2"/>
+    <sheet name="首页" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>LOGO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,23 +41,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>版权信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>发现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版权信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他内容</t>
+    <t>客栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑选的网友最新发的图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不断的推送最新的游记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娱乐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -60,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,13 +124,51 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,13 +183,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,146 +532,533 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="2"/>
+      <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="10"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="16"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="22">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="M22:N22"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O1:P10"/>
+    <mergeCell ref="O1:P24"/>
     <mergeCell ref="J1:N1"/>
-    <mergeCell ref="A1:B10"/>
+    <mergeCell ref="A1:B24"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="C2:D2"/>
@@ -555,12 +1066,52 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="E24:L24"/>
+    <mergeCell ref="G5:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/页面结构设计.xlsx
+++ b/doc/页面结构设计.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="2" r:id="rId1"/>
     <sheet name="注册" sheetId="3" r:id="rId2"/>
     <sheet name="首页" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="新建游记" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -185,48 +185,48 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,7 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -564,496 +564,490 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G5" sqref="G5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="1"/>
+      <c r="P1" s="15"/>
     </row>
     <row r="2" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10" t="s">
+      <c r="L2" s="14"/>
+      <c r="M2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
     </row>
     <row r="3" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
     </row>
     <row r="4" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
     </row>
     <row r="5" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="6" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
     </row>
     <row r="6" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
     </row>
     <row r="7" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
     </row>
     <row r="8" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
     </row>
     <row r="9" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
     </row>
     <row r="10" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
     </row>
     <row r="11" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
     </row>
     <row r="12" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
     </row>
     <row r="13" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="9" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
     </row>
     <row r="14" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
     </row>
     <row r="15" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
     </row>
     <row r="16" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
     </row>
     <row r="17" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
     </row>
     <row r="18" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
     </row>
     <row r="19" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
     </row>
     <row r="20" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="12" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
     </row>
     <row r="21" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
     </row>
     <row r="22" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="16" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16" t="s">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="15" t="s">
+      <c r="F22" s="10"/>
+      <c r="G22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16" t="s">
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16" t="s">
+      <c r="L22" s="10"/>
+      <c r="M22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="16"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
     </row>
     <row r="23" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
     </row>
     <row r="24" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1" t="s">
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G22:J22"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O1:P24"/>
@@ -1070,6 +1064,12 @@
     <mergeCell ref="M24:N24"/>
     <mergeCell ref="E24:L24"/>
     <mergeCell ref="G5:J5"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G22:J22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/页面结构设计.xlsx
+++ b/doc/页面结构设计.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="2" r:id="rId1"/>
     <sheet name="注册" sheetId="3" r:id="rId2"/>
     <sheet name="首页" sheetId="1" r:id="rId3"/>
-    <sheet name="新建游记" sheetId="4" r:id="rId4"/>
+    <sheet name="写游记" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>LOGO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>娱乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模版选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -204,17 +216,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -227,6 +236,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,11 +558,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -564,73 +586,73 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="15"/>
+      <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="14" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
     </row>
     <row r="3" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -643,12 +665,12 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
     </row>
     <row r="4" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -661,32 +683,32 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
     </row>
     <row r="5" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -699,12 +721,12 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
     </row>
     <row r="7" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -717,12 +739,12 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
     </row>
     <row r="8" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -735,12 +757,12 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -753,12 +775,12 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -771,12 +793,12 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -789,12 +811,12 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
     </row>
     <row r="12" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -807,32 +829,32 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
     </row>
     <row r="13" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
     </row>
     <row r="14" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -845,12 +867,12 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
     </row>
     <row r="15" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -863,12 +885,12 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
     </row>
     <row r="16" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -881,12 +903,12 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -899,12 +921,12 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
     </row>
     <row r="18" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -917,12 +939,12 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -935,32 +957,32 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
     </row>
     <row r="21" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -973,40 +995,40 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
     </row>
     <row r="22" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="10" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="13" t="s">
+      <c r="F22" s="12"/>
+      <c r="G22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="10" t="s">
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10" t="s">
+      <c r="L22" s="12"/>
+      <c r="M22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="10"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
     </row>
     <row r="23" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1019,35 +1041,41 @@
       <c r="L23" s="8"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
     </row>
     <row r="24" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G22:J22"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O1:P24"/>
@@ -1064,12 +1092,6 @@
     <mergeCell ref="M24:N24"/>
     <mergeCell ref="E24:L24"/>
     <mergeCell ref="G5:J5"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G22:J22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1079,12 +1101,501 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="14"/>
+    </row>
+    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+    </row>
+    <row r="12" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+    </row>
+    <row r="14" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+    </row>
+    <row r="15" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+    </row>
+    <row r="17" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+    </row>
+    <row r="18" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+    </row>
+    <row r="19" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+    </row>
+    <row r="20" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+    </row>
+    <row r="21" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+    </row>
+    <row r="22" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+    </row>
+    <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+    </row>
+    <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H12:I14"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="A1:B24"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="O1:P24"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/页面结构设计.xlsx
+++ b/doc/页面结构设计.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="2" r:id="rId1"/>
     <sheet name="注册" sheetId="3" r:id="rId2"/>
     <sheet name="首页" sheetId="1" r:id="rId3"/>
     <sheet name="写游记" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="照片" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -222,8 +222,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -236,18 +248,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -586,73 +586,73 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="14"/>
+      <c r="P1" s="18"/>
     </row>
     <row r="2" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="17"/>
+      <c r="K2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
     </row>
     <row r="3" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -665,12 +665,12 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
     </row>
     <row r="4" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -683,32 +683,32 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
     </row>
     <row r="5" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
     </row>
     <row r="6" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -721,12 +721,12 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
     </row>
     <row r="7" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -739,12 +739,12 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
     </row>
     <row r="8" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -757,12 +757,12 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
     </row>
     <row r="9" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -775,12 +775,12 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
     </row>
     <row r="10" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -793,12 +793,12 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
     </row>
     <row r="11" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -811,12 +811,12 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
     </row>
     <row r="12" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -829,32 +829,32 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
     </row>
     <row r="13" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
     </row>
     <row r="14" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -867,12 +867,12 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
     </row>
     <row r="15" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -885,12 +885,12 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
     </row>
     <row r="16" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -903,12 +903,12 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
     </row>
     <row r="17" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -921,12 +921,12 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
     </row>
     <row r="18" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -939,12 +939,12 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
     </row>
     <row r="19" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -957,32 +957,32 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
     </row>
     <row r="20" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
     </row>
     <row r="21" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -995,40 +995,40 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
     </row>
     <row r="22" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="12" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12" t="s">
+      <c r="D22" s="13"/>
+      <c r="E22" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="19" t="s">
+      <c r="F22" s="13"/>
+      <c r="G22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="12" t="s">
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12" t="s">
+      <c r="L22" s="13"/>
+      <c r="M22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="12"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
     </row>
     <row r="23" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1041,41 +1041,35 @@
       <c r="L23" s="8"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
     </row>
     <row r="24" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="18"/>
+      <c r="E24" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14" t="s">
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G22:J22"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O1:P24"/>
@@ -1092,6 +1086,12 @@
     <mergeCell ref="M24:N24"/>
     <mergeCell ref="E24:L24"/>
     <mergeCell ref="G5:J5"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G22:J22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1103,73 +1103,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Q2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="14"/>
+      <c r="P1" s="18"/>
     </row>
     <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="17"/>
+      <c r="K2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1182,12 +1182,12 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="11"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1200,32 +1200,32 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="11"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="11"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1238,363 +1238,363 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="11"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
       <c r="N10" s="10"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="17" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
     </row>
     <row r="14" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
     </row>
     <row r="15" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
       <c r="N16" s="10"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
     </row>
     <row r="17" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
     </row>
     <row r="18" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
       <c r="N18" s="10"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
     </row>
     <row r="19" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
       <c r="N19" s="10"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
     </row>
     <row r="20" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
     </row>
     <row r="21" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
     </row>
     <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
     </row>
     <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="18"/>
+      <c r="E24" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14" t="s">
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O1:P24"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="A1:B24"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:N1"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:L24"/>
     <mergeCell ref="M24:N24"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="H12:I14"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="A1:B24"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="O1:P24"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
